--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698523.4563660364</v>
+        <v>694762.7190244251</v>
       </c>
     </row>
     <row r="7">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0.8069000430770259</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>36.39025468426209</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="U3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="U4" t="n">
-        <v>15.18661160258025</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>36.39025468426205</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>36.39025468426205</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.39025468426205</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>15.18661160258022</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1378,16 +1378,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>126.9111441840548</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>176.1446634785934</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>94.13208900787961</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1548,7 +1548,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>48.59536370223473</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>304.6279919443828</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>175.0612197306591</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1767,19 +1767,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>114.2435844806795</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>5.781093377498646</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1846,10 +1846,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>234.6317525708392</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>185.0779563346879</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>160.4177017065565</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>33.33850202312621</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2092,13 +2092,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>45.10068503699167</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.1646523324964</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>103.275259166791</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2250,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>32.5101669563733</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>186.4045596893511</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>24.03351552474102</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>401.4346039811578</v>
       </c>
       <c r="G26" t="n">
-        <v>186.4045596893515</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>39.41494816331947</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2803,10 +2803,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>323.1773957603372</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3043,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>320.896566438681</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.8427394274217</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3268,19 +3268,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>310.3772050343748</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>185.0779563346879</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>112.6659840122217</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4156936425997</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>328.1095799734337</v>
       </c>
       <c r="G38" t="n">
-        <v>229.7604559657568</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -3556,22 +3556,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3669,10 +3669,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>115.4600375108899</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>172.2639166208111</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3745,19 +3745,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>192.182802600225</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>185.6008941282115</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>119.8133086691848</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>185.7828595733343</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>176.9631776198095</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4146,10 +4146,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>242.896713122064</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>38.08064147381526</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064261</v>
+        <v>88.73594738064259</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549119</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419041</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F2" t="n">
-        <v>3.305200243802204</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G2" t="n">
         <v>3.305200243802188</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.06303325820834</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="C3" t="n">
-        <v>40.06303325820834</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="D3" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E3" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="F3" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="G3" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H3" t="n">
         <v>3.305200243802188</v>
@@ -4409,28 +4409,28 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>70.27072642131186</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L3" t="n">
-        <v>111.1725794383639</v>
+        <v>152.074432455416</v>
       </c>
       <c r="M3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="O3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
@@ -4442,19 +4442,19 @@
         <v>81.79535956884203</v>
       </c>
       <c r="U3" t="n">
-        <v>40.06303325820834</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="V3" t="n">
-        <v>40.06303325820834</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W3" t="n">
-        <v>40.06303325820834</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X3" t="n">
-        <v>40.06303325820834</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.06303325820834</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="4">
@@ -4491,22 +4491,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N4" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O4" t="n">
+        <v>85.10890627790634</v>
+      </c>
+      <c r="P4" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="P4" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
@@ -4518,19 +4518,19 @@
         <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U4" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V4" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W4" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y4" t="n">
         <v>3.305200243802188</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085425</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085425</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085425</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085425</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N5" t="n">
-        <v>44.20705326085425</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O5" t="n">
-        <v>44.20705326085425</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P5" t="n">
-        <v>83.45630615600521</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q5" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.305200243802187</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C6" t="n">
-        <v>3.305200243802187</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D6" t="n">
-        <v>3.305200243802187</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E6" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802187</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>44.20705326085425</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K6" t="n">
-        <v>83.45630615600521</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L6" t="n">
-        <v>83.45630615600521</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M6" t="n">
-        <v>83.45630615600521</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N6" t="n">
-        <v>83.45630615600521</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O6" t="n">
-        <v>83.45630615600521</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P6" t="n">
-        <v>83.45630615600521</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>86.76985286506954</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W6" t="n">
-        <v>45.03752655443586</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X6" t="n">
-        <v>3.305200243802187</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.305200243802187</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.79535956884197</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C7" t="n">
-        <v>81.79535956884197</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D7" t="n">
-        <v>81.79535956884197</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E7" t="n">
-        <v>45.03752655443586</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F7" t="n">
-        <v>45.03752655443586</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G7" t="n">
-        <v>45.03752655443586</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>44.20705326085425</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>44.20705326085425</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L7" t="n">
-        <v>44.20705326085425</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M7" t="n">
-        <v>85.1089062779063</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N7" t="n">
-        <v>126.0107592949583</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O7" t="n">
-        <v>165.2600121901093</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P7" t="n">
-        <v>165.2600121901093</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901093</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901093</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="T7" t="n">
-        <v>165.2600121901093</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U7" t="n">
-        <v>165.2600121901093</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V7" t="n">
-        <v>165.2600121901093</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W7" t="n">
-        <v>165.2600121901093</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X7" t="n">
-        <v>165.2600121901093</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y7" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="8">
@@ -4783,64 +4783,64 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064257</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549115</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E8" t="n">
         <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802179</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K8" t="n">
-        <v>44.20705326085425</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L8" t="n">
-        <v>44.20705326085425</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M8" t="n">
-        <v>44.20705326085425</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20705326085425</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O8" t="n">
-        <v>83.45630615600521</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P8" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="Q8" t="n">
         <v>124.3581591730573</v>
       </c>
-      <c r="Q8" t="n">
-        <v>165.2600121901093</v>
-      </c>
       <c r="R8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
         <v>164.4449616415467</v>
@@ -4849,7 +4849,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="9">
@@ -4862,73 +4862,73 @@
         <v>123.5276858794757</v>
       </c>
       <c r="C9" t="n">
-        <v>81.79535956884197</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0630332582083</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="E9" t="n">
-        <v>3.305200243802187</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802187</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G9" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
         <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>70.27072642131183</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K9" t="n">
-        <v>70.27072642131183</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L9" t="n">
-        <v>70.27072642131183</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M9" t="n">
-        <v>111.1725794383639</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="N9" t="n">
-        <v>124.3581591730573</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="O9" t="n">
-        <v>124.3581591730573</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="P9" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q9" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901093</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901093</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901093</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901093</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901093</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901093</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901093</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.03752655443586</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C10" t="n">
-        <v>45.03752655443586</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>45.03752655443586</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>45.03752655443586</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F10" t="n">
-        <v>45.03752655443586</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G10" t="n">
-        <v>45.03752655443586</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443586</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L10" t="n">
-        <v>42.55445313895315</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M10" t="n">
-        <v>83.45630615600521</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N10" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="O10" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P10" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>143.8421908954812</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>86.76985286506954</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U10" t="n">
-        <v>86.76985286506954</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V10" t="n">
-        <v>45.03752655443586</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W10" t="n">
-        <v>45.03752655443586</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="X10" t="n">
-        <v>45.03752655443586</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.03752655443586</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2360.327577447737</v>
+        <v>1319.173435580565</v>
       </c>
       <c r="C11" t="n">
-        <v>1922.18510463116</v>
+        <v>881.0309627639886</v>
       </c>
       <c r="D11" t="n">
-        <v>1486.275319805604</v>
+        <v>445.121177938433</v>
       </c>
       <c r="E11" t="n">
-        <v>1052.500574963899</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F11" t="n">
-        <v>624.6331453731073</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
-        <v>225.1304540525844</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065473</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.0817647851416</v>
+        <v>905.7210691049575</v>
       </c>
       <c r="C13" t="n">
-        <v>616.0817647851416</v>
+        <v>905.7210691049575</v>
       </c>
       <c r="D13" t="n">
-        <v>616.0817647851416</v>
+        <v>739.8430763064802</v>
       </c>
       <c r="E13" t="n">
-        <v>520.9988465953642</v>
+        <v>570.0850725572175</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2917925571204</v>
+        <v>393.3780185189737</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>228.6368381314921</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>96.29277751080801</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>289.4920009833859</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L13" t="n">
-        <v>413.3628026016839</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M13" t="n">
-        <v>997.5438780199986</v>
+        <v>1580.548470240637</v>
       </c>
       <c r="N13" t="n">
-        <v>1567.301592981533</v>
+        <v>1708.047382044527</v>
       </c>
       <c r="O13" t="n">
-        <v>1685.067474329295</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270316</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856608</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041287</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2360.327577447737</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C14" t="n">
-        <v>1922.18510463116</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D14" t="n">
-        <v>1486.275319805605</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E14" t="n">
-        <v>1052.5005749639</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F14" t="n">
-        <v>624.6331453731077</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1971.726811037395</v>
       </c>
       <c r="X14" t="n">
-        <v>2360.327577447737</v>
+        <v>1552.584347616706</v>
       </c>
       <c r="Y14" t="n">
-        <v>2360.327577447737</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.655226289377</v>
+        <v>852.4895006216354</v>
       </c>
       <c r="C16" t="n">
-        <v>356.2576662078826</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D16" t="n">
-        <v>356.2576662078826</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E16" t="n">
-        <v>356.2576662078826</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F16" t="n">
-        <v>179.5506121696388</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
         <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>477.6707703898317</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>601.5415720081296</v>
+        <v>588.0160255186812</v>
       </c>
       <c r="M16" t="n">
-        <v>1138.289667082993</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N16" t="n">
-        <v>1708.047382044527</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O16" t="n">
         <v>1825.813263392288</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2354.488089187637</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>2076.10145723638</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1789.14594910681</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1517.119544693102</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>1271.727790026514</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>1044.308119340623</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1783.63201234403</v>
+        <v>1146.581524975473</v>
       </c>
       <c r="C17" t="n">
-        <v>1345.489539527453</v>
+        <v>1146.581524975473</v>
       </c>
       <c r="D17" t="n">
-        <v>909.5797547018979</v>
+        <v>1146.581524975473</v>
       </c>
       <c r="E17" t="n">
-        <v>475.805009860193</v>
+        <v>712.8067801337679</v>
       </c>
       <c r="F17" t="n">
-        <v>47.93758026940073</v>
+        <v>284.9393505429757</v>
       </c>
       <c r="G17" t="n">
         <v>47.93758026940073</v>
@@ -5515,28 +5515,28 @@
         <v>119.1375305205814</v>
       </c>
       <c r="J17" t="n">
-        <v>276.7843057640266</v>
+        <v>312.6047130658806</v>
       </c>
       <c r="K17" t="n">
-        <v>513.0559561432475</v>
+        <v>548.8763634451016</v>
       </c>
       <c r="L17" t="n">
-        <v>806.1718310071482</v>
+        <v>841.9922383090022</v>
       </c>
       <c r="M17" t="n">
-        <v>1132.319719175935</v>
+        <v>1168.140126477789</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.745021152413</v>
+        <v>1499.565428454267</v>
       </c>
       <c r="O17" t="n">
-        <v>1776.700535693706</v>
+        <v>1812.52094299556</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.800826872975</v>
+        <v>2079.621234174829</v>
       </c>
       <c r="Q17" t="n">
-        <v>2244.382021884042</v>
+        <v>2280.202429185896</v>
       </c>
       <c r="R17" t="n">
         <v>2396.879013470037</v>
@@ -5554,13 +5554,13 @@
         <v>2396.879013470037</v>
       </c>
       <c r="W17" t="n">
-        <v>2209.931582828938</v>
+        <v>1992.02355888107</v>
       </c>
       <c r="X17" t="n">
-        <v>2209.931582828938</v>
+        <v>1572.88109546038</v>
       </c>
       <c r="Y17" t="n">
-        <v>2209.931582828938</v>
+        <v>1572.88109546038</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>47.93758026940073</v>
       </c>
       <c r="I18" t="n">
-        <v>82.15431644087685</v>
+        <v>82.15431644087676</v>
       </c>
       <c r="J18" t="n">
-        <v>176.047655787344</v>
+        <v>176.0476557873439</v>
       </c>
       <c r="K18" t="n">
-        <v>336.5263278415143</v>
+        <v>336.5263278415142</v>
       </c>
       <c r="L18" t="n">
-        <v>552.3097067165365</v>
+        <v>552.3097067165364</v>
       </c>
       <c r="M18" t="n">
-        <v>804.118732019234</v>
+        <v>804.1187320192339</v>
       </c>
       <c r="N18" t="n">
         <v>1062.592392940554</v>
       </c>
       <c r="O18" t="n">
-        <v>1299.045295755085</v>
+        <v>1299.045295755084</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.819596319891</v>
+        <v>1488.81959631989</v>
       </c>
       <c r="Q18" t="n">
         <v>1615.678690528125</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>732.8423423721597</v>
+        <v>746.5578121565708</v>
       </c>
       <c r="C19" t="n">
-        <v>560.2806308553846</v>
+        <v>573.9961006397957</v>
       </c>
       <c r="D19" t="n">
-        <v>394.4026380569073</v>
+        <v>408.1181078413184</v>
       </c>
       <c r="E19" t="n">
-        <v>224.6446343076445</v>
+        <v>408.1181078413184</v>
       </c>
       <c r="F19" t="n">
-        <v>47.93758026940073</v>
+        <v>408.1181078413184</v>
       </c>
       <c r="G19" t="n">
-        <v>47.93758026940073</v>
+        <v>243.3769274538368</v>
       </c>
       <c r="H19" t="n">
-        <v>47.93758026940073</v>
+        <v>111.0328668331527</v>
       </c>
       <c r="I19" t="n">
         <v>47.93758026940073</v>
@@ -5676,22 +5676,22 @@
         <v>106.8432439715838</v>
       </c>
       <c r="K19" t="n">
-        <v>203.643344539142</v>
+        <v>478.4017991102776</v>
       </c>
       <c r="L19" t="n">
-        <v>512.5904883304104</v>
+        <v>1020.482482496536</v>
       </c>
       <c r="M19" t="n">
-        <v>1102.678747849853</v>
+        <v>1151.086874835066</v>
       </c>
       <c r="N19" t="n">
-        <v>1672.436462811387</v>
+        <v>1278.585786638955</v>
       </c>
       <c r="O19" t="n">
-        <v>2209.87159338493</v>
+        <v>1694.171924550256</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.640649562613</v>
+        <v>2142.447874698282</v>
       </c>
       <c r="Q19" t="n">
         <v>2380.407920793269</v>
@@ -5700,25 +5700,25 @@
         <v>2396.879013470037</v>
       </c>
       <c r="S19" t="n">
-        <v>2396.879013470037</v>
+        <v>2252.452474974271</v>
       </c>
       <c r="T19" t="n">
-        <v>2234.840930938161</v>
+        <v>2010.205250877678</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.454298986904</v>
+        <v>1731.818618926421</v>
       </c>
       <c r="V19" t="n">
-        <v>1669.498790857335</v>
+        <v>1444.863110796852</v>
       </c>
       <c r="W19" t="n">
-        <v>1397.472386443626</v>
+        <v>1411.187856228037</v>
       </c>
       <c r="X19" t="n">
-        <v>1152.080631777039</v>
+        <v>1165.79610156145</v>
       </c>
       <c r="Y19" t="n">
-        <v>924.6609610911469</v>
+        <v>938.3764308755578</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1744.992230847976</v>
+        <v>1625.486134209327</v>
       </c>
       <c r="C20" t="n">
-        <v>1744.992230847976</v>
+        <v>1187.343661392751</v>
       </c>
       <c r="D20" t="n">
-        <v>1309.082446022421</v>
+        <v>751.4338765671951</v>
       </c>
       <c r="E20" t="n">
-        <v>875.3077011807159</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="F20" t="n">
-        <v>447.4402715899236</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="G20" t="n">
-        <v>47.93758026940073</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="H20" t="n">
         <v>47.93758026940073</v>
@@ -5752,52 +5752,52 @@
         <v>119.1375305205814</v>
       </c>
       <c r="J20" t="n">
-        <v>276.7843057640266</v>
+        <v>312.6047130658806</v>
       </c>
       <c r="K20" t="n">
-        <v>513.0559561432475</v>
+        <v>548.8763634451016</v>
       </c>
       <c r="L20" t="n">
-        <v>806.1718310071482</v>
+        <v>841.9922383090022</v>
       </c>
       <c r="M20" t="n">
-        <v>1132.319719175935</v>
+        <v>1168.140126477789</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.745021152413</v>
+        <v>1499.565428454267</v>
       </c>
       <c r="O20" t="n">
-        <v>1776.700535693706</v>
+        <v>1812.52094299556</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.800826872975</v>
+        <v>2079.621234174829</v>
       </c>
       <c r="Q20" t="n">
-        <v>2244.382021884042</v>
+        <v>2280.202429185896</v>
       </c>
       <c r="R20" t="n">
         <v>2396.879013470037</v>
       </c>
       <c r="S20" t="n">
-        <v>2396.879013470037</v>
+        <v>2356.412643684834</v>
       </c>
       <c r="T20" t="n">
-        <v>2396.879013470037</v>
+        <v>2310.856396172721</v>
       </c>
       <c r="U20" t="n">
-        <v>2396.879013470037</v>
+        <v>2051.785704694235</v>
       </c>
       <c r="V20" t="n">
-        <v>2396.879013470037</v>
+        <v>2051.785704694235</v>
       </c>
       <c r="W20" t="n">
-        <v>2153.278354548323</v>
+        <v>2051.785704694235</v>
       </c>
       <c r="X20" t="n">
-        <v>2153.278354548323</v>
+        <v>2051.785704694235</v>
       </c>
       <c r="Y20" t="n">
-        <v>1744.992230847976</v>
+        <v>2051.785704694235</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>543.3023337868369</v>
+        <v>543.3023337868368</v>
       </c>
       <c r="C21" t="n">
-        <v>436.8458726234792</v>
+        <v>436.8458726234791</v>
       </c>
       <c r="D21" t="n">
-        <v>341.7555837700324</v>
+        <v>341.7555837700323</v>
       </c>
       <c r="E21" t="n">
-        <v>247.6351690969861</v>
+        <v>247.635169096986</v>
       </c>
       <c r="F21" t="n">
-        <v>164.2513307131478</v>
+        <v>164.2513307131476</v>
       </c>
       <c r="G21" t="n">
-        <v>79.88023030280449</v>
+        <v>79.88023030280448</v>
       </c>
       <c r="H21" t="n">
         <v>47.93758026940073</v>
       </c>
       <c r="I21" t="n">
-        <v>82.15431644087685</v>
+        <v>82.15431644087676</v>
       </c>
       <c r="J21" t="n">
-        <v>176.047655787344</v>
+        <v>176.0476557873439</v>
       </c>
       <c r="K21" t="n">
-        <v>336.5263278415143</v>
+        <v>336.5263278415142</v>
       </c>
       <c r="L21" t="n">
-        <v>552.3097067165365</v>
+        <v>552.3097067165364</v>
       </c>
       <c r="M21" t="n">
-        <v>804.118732019234</v>
+        <v>804.1187320192339</v>
       </c>
       <c r="N21" t="n">
         <v>1062.592392940554</v>
       </c>
       <c r="O21" t="n">
-        <v>1299.045295755085</v>
+        <v>1299.045295755084</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.819596319891</v>
+        <v>1488.81959631989</v>
       </c>
       <c r="Q21" t="n">
         <v>1615.678690528125</v>
@@ -5870,13 +5870,13 @@
         <v>1131.282204115305</v>
       </c>
       <c r="W21" t="n">
-        <v>945.9594498484994</v>
+        <v>945.9594498484992</v>
       </c>
       <c r="X21" t="n">
-        <v>791.0920140873793</v>
+        <v>791.0920140873792</v>
       </c>
       <c r="Y21" t="n">
-        <v>664.6062348666001</v>
+        <v>664.6062348665999</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>652.6332008074417</v>
+        <v>865.1864029928438</v>
       </c>
       <c r="C22" t="n">
-        <v>548.3147572046224</v>
+        <v>692.6246914760687</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4367644061451</v>
+        <v>526.7466986775914</v>
       </c>
       <c r="E22" t="n">
-        <v>212.6787606568823</v>
+        <v>356.9886949283286</v>
       </c>
       <c r="F22" t="n">
-        <v>212.6787606568823</v>
+        <v>180.2816408900848</v>
       </c>
       <c r="G22" t="n">
-        <v>47.93758026940073</v>
+        <v>180.2816408900848</v>
       </c>
       <c r="H22" t="n">
         <v>47.93758026940073</v>
@@ -5913,22 +5913,22 @@
         <v>106.8432439715838</v>
       </c>
       <c r="K22" t="n">
-        <v>203.643344539142</v>
+        <v>478.4017991102776</v>
       </c>
       <c r="L22" t="n">
-        <v>512.5904883304104</v>
+        <v>1020.482482496536</v>
       </c>
       <c r="M22" t="n">
-        <v>1102.678747849853</v>
+        <v>1151.086874835066</v>
       </c>
       <c r="N22" t="n">
-        <v>1672.436462811387</v>
+        <v>1278.585786638955</v>
       </c>
       <c r="O22" t="n">
-        <v>2209.87159338493</v>
+        <v>1694.171924550256</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.640649562613</v>
+        <v>2142.447874698282</v>
       </c>
       <c r="Q22" t="n">
         <v>2380.407920793269</v>
@@ -5937,25 +5937,25 @@
         <v>2396.879013470037</v>
       </c>
       <c r="S22" t="n">
-        <v>2396.879013470037</v>
+        <v>2364.040460988851</v>
       </c>
       <c r="T22" t="n">
-        <v>2154.631789373443</v>
+        <v>2121.793236892258</v>
       </c>
       <c r="U22" t="n">
-        <v>1876.245157422186</v>
+        <v>1843.406604941001</v>
       </c>
       <c r="V22" t="n">
-        <v>1589.289649292617</v>
+        <v>1556.451096811431</v>
       </c>
       <c r="W22" t="n">
-        <v>1317.263244878908</v>
+        <v>1284.424692397723</v>
       </c>
       <c r="X22" t="n">
-        <v>1071.871490212321</v>
+        <v>1284.424692397723</v>
       </c>
       <c r="Y22" t="n">
-        <v>844.4518195264288</v>
+        <v>1057.005021711831</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1359.657252164034</v>
+        <v>1761.294983468407</v>
       </c>
       <c r="C23" t="n">
-        <v>921.5147793474571</v>
+        <v>1323.152510651831</v>
       </c>
       <c r="D23" t="n">
-        <v>921.5147793474571</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="E23" t="n">
-        <v>487.7400345057522</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="F23" t="n">
-        <v>59.87260491495994</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G23" t="n">
         <v>59.87260491495994</v>
@@ -6007,7 +6007,7 @@
         <v>2223.890247792182</v>
       </c>
       <c r="P23" t="n">
-        <v>2490.990538971451</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q23" t="n">
         <v>2707.7995967108</v>
@@ -6019,22 +6019,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T23" t="n">
-        <v>2805.342811718349</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U23" t="n">
-        <v>2546.272120239863</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="V23" t="n">
-        <v>2183.65517017369</v>
+        <v>2631.013295681823</v>
       </c>
       <c r="W23" t="n">
-        <v>1778.799715584723</v>
+        <v>2606.737017374004</v>
       </c>
       <c r="X23" t="n">
-        <v>1359.657252164034</v>
+        <v>2187.594553953315</v>
       </c>
       <c r="Y23" t="n">
-        <v>1359.657252164034</v>
+        <v>2187.594553953315</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L24" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M24" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N24" t="n">
         <v>1074.527417586113</v>
@@ -6126,7 +6126,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C25" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D25" t="n">
         <v>766.5181902743841</v>
@@ -6138,7 +6138,7 @@
         <v>420.0531324868775</v>
       </c>
       <c r="G25" t="n">
-        <v>255.3119520993958</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H25" t="n">
         <v>122.9678914787119</v>
@@ -6147,25 +6147,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J25" t="n">
-        <v>118.7782686171431</v>
+        <v>139.4866804296565</v>
       </c>
       <c r="K25" t="n">
-        <v>490.3368237558369</v>
+        <v>511.0452355683503</v>
       </c>
       <c r="L25" t="n">
-        <v>1032.417507142096</v>
+        <v>1053.125918954609</v>
       </c>
       <c r="M25" t="n">
-        <v>1622.505766661538</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N25" t="n">
-        <v>2192.263481623072</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O25" t="n">
-        <v>2729.698612196616</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P25" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1547.944686193682</v>
+        <v>1335.046633553087</v>
       </c>
       <c r="C26" t="n">
-        <v>1109.802213377105</v>
+        <v>1335.046633553087</v>
       </c>
       <c r="D26" t="n">
-        <v>1109.802213377105</v>
+        <v>899.1368487275313</v>
       </c>
       <c r="E26" t="n">
-        <v>676.0274685354002</v>
+        <v>465.3621038858265</v>
       </c>
       <c r="F26" t="n">
-        <v>248.1600389446079</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G26" t="n">
-        <v>59.87260491495995</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H26" t="n">
-        <v>59.87260491495995</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I26" t="n">
         <v>131.0725551661405</v>
@@ -6247,7 +6247,7 @@
         <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
-        <v>2876.953661463857</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R26" t="n">
         <v>2993.630245747997</v>
@@ -6259,19 +6259,19 @@
         <v>2993.630245747997</v>
       </c>
       <c r="U26" t="n">
-        <v>2734.559554269511</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="V26" t="n">
-        <v>2371.942604203338</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="W26" t="n">
-        <v>1967.087149614371</v>
+        <v>2588.77479115903</v>
       </c>
       <c r="X26" t="n">
-        <v>1547.944686193682</v>
+        <v>2169.632327738341</v>
       </c>
       <c r="Y26" t="n">
-        <v>1547.944686193682</v>
+        <v>1761.346204037995</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>555.237358432396</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C27" t="n">
-        <v>448.7808972690383</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D27" t="n">
-        <v>353.6906084155916</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E27" t="n">
-        <v>259.5701937425453</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F27" t="n">
-        <v>176.1863553587069</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G27" t="n">
-        <v>91.8152549483637</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H27" t="n">
-        <v>59.87260491495995</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>94.08934108643608</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K27" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L27" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M27" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
@@ -6347,10 +6347,10 @@
         <v>957.8944744940584</v>
       </c>
       <c r="X27" t="n">
-        <v>803.0270387329384</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y27" t="n">
-        <v>676.5412595121592</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="28">
@@ -6360,52 +6360,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1104.957894589637</v>
+        <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728618</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D28" t="n">
-        <v>766.5181902743846</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251218</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.053132486878</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
-        <v>255.3119520993964</v>
+        <v>255.3119520993958</v>
       </c>
       <c r="H28" t="n">
         <v>122.9678914787119</v>
       </c>
       <c r="I28" t="n">
-        <v>59.87260491495995</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
         <v>118.7782686171431</v>
       </c>
       <c r="K28" t="n">
-        <v>219.75414325177</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L28" t="n">
-        <v>761.834826638029</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M28" t="n">
-        <v>1351.923086157471</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N28" t="n">
-        <v>1921.680801119006</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O28" t="n">
-        <v>2459.115931692549</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P28" t="n">
-        <v>2907.391881840574</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q28" t="n">
-        <v>2977.15915307123</v>
+        <v>2977.159153071229</v>
       </c>
       <c r="R28" t="n">
         <v>2993.630245747997</v>
@@ -6414,19 +6414,19 @@
         <v>2849.203707252232</v>
       </c>
       <c r="T28" t="n">
-        <v>2606.956483155639</v>
+        <v>2606.956483155638</v>
       </c>
       <c r="U28" t="n">
         <v>2328.569851204381</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.614343074812</v>
+        <v>2041.614343074811</v>
       </c>
       <c r="W28" t="n">
         <v>1769.587938661103</v>
       </c>
       <c r="X28" t="n">
-        <v>1524.196183994516</v>
+        <v>1524.196183994515</v>
       </c>
       <c r="Y28" t="n">
         <v>1296.776513308624</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2122.00885088892</v>
+        <v>1767.20229871932</v>
       </c>
       <c r="C29" t="n">
-        <v>1683.866378072343</v>
+        <v>1329.059825902743</v>
       </c>
       <c r="D29" t="n">
-        <v>1247.956593246788</v>
+        <v>893.1500410771876</v>
       </c>
       <c r="E29" t="n">
-        <v>814.1818484050827</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="F29" t="n">
-        <v>386.3144188142905</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G29" t="n">
-        <v>59.87260491495995</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H29" t="n">
-        <v>59.87260491495995</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I29" t="n">
         <v>131.0725551661405</v>
@@ -6484,31 +6484,31 @@
         <v>2490.990538971451</v>
       </c>
       <c r="Q29" t="n">
-        <v>2876.953661463857</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T29" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U29" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="V29" t="n">
-        <v>2953.163875962794</v>
+        <v>2631.013295681823</v>
       </c>
       <c r="W29" t="n">
-        <v>2548.308421373828</v>
+        <v>2226.157841092857</v>
       </c>
       <c r="X29" t="n">
-        <v>2548.308421373828</v>
+        <v>1807.015377672168</v>
       </c>
       <c r="Y29" t="n">
-        <v>2548.308421373828</v>
+        <v>1807.015377672168</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>555.237358432396</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C30" t="n">
-        <v>448.7808972690383</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D30" t="n">
-        <v>353.6906084155916</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E30" t="n">
-        <v>259.5701937425453</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F30" t="n">
-        <v>176.1863553587069</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G30" t="n">
-        <v>91.8152549483637</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H30" t="n">
-        <v>59.87260491495995</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I30" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M30" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6584,10 +6584,10 @@
         <v>957.8944744940584</v>
       </c>
       <c r="X30" t="n">
-        <v>803.0270387329384</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y30" t="n">
-        <v>676.5412595121592</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="31">
@@ -6618,28 +6618,28 @@
         <v>122.9678914787119</v>
       </c>
       <c r="I31" t="n">
-        <v>59.87260491495995</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>219.7541432517696</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L31" t="n">
-        <v>761.8348266380285</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M31" t="n">
-        <v>1351.923086157471</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N31" t="n">
-        <v>1921.680801119005</v>
+        <v>1819.359299606849</v>
       </c>
       <c r="O31" t="n">
-        <v>2459.115931692548</v>
+        <v>2356.794430180392</v>
       </c>
       <c r="P31" t="n">
-        <v>2907.391881840573</v>
+        <v>2805.070380328417</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2119.704982887247</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C32" t="n">
-        <v>1681.56251007067</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D32" t="n">
-        <v>1245.652725245115</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E32" t="n">
-        <v>811.8779804034098</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F32" t="n">
-        <v>384.0105508126175</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G32" t="n">
         <v>59.87260491495994</v>
@@ -6700,16 +6700,16 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>524.9909807888067</v>
+        <v>1145.627595723062</v>
       </c>
       <c r="L32" t="n">
-        <v>818.1068556527074</v>
+        <v>1438.743470586963</v>
       </c>
       <c r="M32" t="n">
-        <v>1355.393174909598</v>
+        <v>1764.89135875575</v>
       </c>
       <c r="N32" t="n">
         <v>2096.316660732227</v>
@@ -6727,25 +6727,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T32" t="n">
-        <v>2741.392624431906</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U32" t="n">
-        <v>2482.32193295342</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="V32" t="n">
-        <v>2119.704982887247</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="W32" t="n">
-        <v>2119.704982887247</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="X32" t="n">
-        <v>2119.704982887247</v>
+        <v>2630.152731174844</v>
       </c>
       <c r="Y32" t="n">
-        <v>2119.704982887247</v>
+        <v>2221.866607474497</v>
       </c>
     </row>
     <row r="33">
@@ -6837,7 +6837,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D34" t="n">
         <v>766.5181902743841</v>
@@ -6849,7 +6849,7 @@
         <v>420.0531324868775</v>
       </c>
       <c r="G34" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993958</v>
       </c>
       <c r="H34" t="n">
         <v>122.9678914787119</v>
@@ -6858,25 +6858,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>219.7541432517691</v>
+        <v>511.0452355683503</v>
       </c>
       <c r="L34" t="n">
-        <v>761.8348266380279</v>
+        <v>1053.125918954609</v>
       </c>
       <c r="M34" t="n">
-        <v>1351.92308615747</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N34" t="n">
-        <v>1921.680801119005</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O34" t="n">
-        <v>2459.115931692548</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P34" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1970.579442985129</v>
+        <v>1188.820029498266</v>
       </c>
       <c r="C35" t="n">
-        <v>1532.436970168552</v>
+        <v>1188.820029498266</v>
       </c>
       <c r="D35" t="n">
-        <v>1096.527185342997</v>
+        <v>875.3077011807159</v>
       </c>
       <c r="E35" t="n">
-        <v>662.7524405012919</v>
+        <v>875.3077011807159</v>
       </c>
       <c r="F35" t="n">
-        <v>234.8850109104996</v>
+        <v>447.4402715899236</v>
       </c>
       <c r="G35" t="n">
         <v>47.93758026940073</v>
@@ -6937,19 +6937,19 @@
         <v>119.1375305205814</v>
       </c>
       <c r="J35" t="n">
-        <v>276.7843057640266</v>
+        <v>312.6047130658806</v>
       </c>
       <c r="K35" t="n">
-        <v>513.0559561432475</v>
+        <v>548.8763634451016</v>
       </c>
       <c r="L35" t="n">
-        <v>806.1718310071482</v>
+        <v>841.9922383090022</v>
       </c>
       <c r="M35" t="n">
-        <v>1132.319719175935</v>
+        <v>1168.140126477789</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.745021152413</v>
+        <v>1499.565428454267</v>
       </c>
       <c r="O35" t="n">
         <v>1812.52094299556</v>
@@ -6973,16 +6973,16 @@
         <v>2396.879013470037</v>
       </c>
       <c r="V35" t="n">
-        <v>2396.879013470037</v>
+        <v>2034.262063403863</v>
       </c>
       <c r="W35" t="n">
-        <v>2396.879013470037</v>
+        <v>2034.262063403863</v>
       </c>
       <c r="X35" t="n">
-        <v>2396.879013470037</v>
+        <v>1615.119599983174</v>
       </c>
       <c r="Y35" t="n">
-        <v>2396.879013470037</v>
+        <v>1615.119599983174</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1262.799202302836</v>
+        <v>543.3023337868368</v>
       </c>
       <c r="C36" t="n">
-        <v>1156.342741139478</v>
+        <v>436.8458726234791</v>
       </c>
       <c r="D36" t="n">
-        <v>1061.252452286031</v>
+        <v>341.7555837700323</v>
       </c>
       <c r="E36" t="n">
-        <v>967.132037612985</v>
+        <v>247.635169096986</v>
       </c>
       <c r="F36" t="n">
-        <v>883.7481992291466</v>
+        <v>164.2513307131476</v>
       </c>
       <c r="G36" t="n">
-        <v>799.3770988188035</v>
+        <v>79.88023030280448</v>
       </c>
       <c r="H36" t="n">
-        <v>767.4344487853997</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I36" t="n">
-        <v>801.6511849568758</v>
+        <v>82.15431644087685</v>
       </c>
       <c r="J36" t="n">
-        <v>895.5445243033429</v>
+        <v>176.047655787344</v>
       </c>
       <c r="K36" t="n">
-        <v>1056.023196357513</v>
+        <v>336.5263278415143</v>
       </c>
       <c r="L36" t="n">
-        <v>1271.806575232536</v>
+        <v>552.3097067165365</v>
       </c>
       <c r="M36" t="n">
-        <v>1523.615600535233</v>
+        <v>804.118732019234</v>
       </c>
       <c r="N36" t="n">
-        <v>1782.089261456553</v>
+        <v>1062.592392940554</v>
       </c>
       <c r="O36" t="n">
-        <v>2018.542164271083</v>
+        <v>1299.045295755085</v>
       </c>
       <c r="P36" t="n">
-        <v>2208.316464835889</v>
+        <v>1488.819596319891</v>
       </c>
       <c r="Q36" t="n">
-        <v>2335.175559044123</v>
+        <v>1615.678690528125</v>
       </c>
       <c r="R36" t="n">
-        <v>2396.879013470037</v>
+        <v>1677.382144954038</v>
       </c>
       <c r="S36" t="n">
-        <v>2352.257982869771</v>
+        <v>1632.761114353772</v>
       </c>
       <c r="T36" t="n">
-        <v>2226.166427745424</v>
+        <v>1506.669559229425</v>
       </c>
       <c r="U36" t="n">
-        <v>2049.896590569305</v>
+        <v>1330.399722053306</v>
       </c>
       <c r="V36" t="n">
-        <v>1850.779072631304</v>
+        <v>1131.282204115305</v>
       </c>
       <c r="W36" t="n">
-        <v>1665.456318364498</v>
+        <v>945.9594498484992</v>
       </c>
       <c r="X36" t="n">
-        <v>1510.588882603378</v>
+        <v>791.0920140873792</v>
       </c>
       <c r="Y36" t="n">
-        <v>1384.103103382599</v>
+        <v>664.6062348665999</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>508.2066623116767</v>
+        <v>857.3658718635503</v>
       </c>
       <c r="C37" t="n">
-        <v>508.2066623116767</v>
+        <v>857.3658718635503</v>
       </c>
       <c r="D37" t="n">
-        <v>508.2066623116767</v>
+        <v>691.487879065073</v>
       </c>
       <c r="E37" t="n">
-        <v>338.4486585624139</v>
+        <v>521.7298753158102</v>
       </c>
       <c r="F37" t="n">
-        <v>161.7416045241701</v>
+        <v>345.0228212775664</v>
       </c>
       <c r="G37" t="n">
-        <v>47.93758026940073</v>
+        <v>180.2816408900848</v>
       </c>
       <c r="H37" t="n">
         <v>47.93758026940073</v>
@@ -7098,19 +7098,19 @@
         <v>106.8432439715838</v>
       </c>
       <c r="K37" t="n">
-        <v>460.8820419675519</v>
+        <v>203.643344539142</v>
       </c>
       <c r="L37" t="n">
-        <v>584.7528435858499</v>
+        <v>512.59048833041</v>
       </c>
       <c r="M37" t="n">
-        <v>1174.841103105292</v>
+        <v>1102.678747849852</v>
       </c>
       <c r="N37" t="n">
-        <v>1744.598818066827</v>
+        <v>1672.436462811387</v>
       </c>
       <c r="O37" t="n">
-        <v>1862.364699414588</v>
+        <v>2209.87159338493</v>
       </c>
       <c r="P37" t="n">
         <v>2310.640649562613</v>
@@ -7137,10 +7137,10 @@
         <v>1172.836706383143</v>
       </c>
       <c r="X37" t="n">
-        <v>927.4449517165556</v>
+        <v>1049.184490582537</v>
       </c>
       <c r="Y37" t="n">
-        <v>700.0252810306638</v>
+        <v>1049.184490582537</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>549.7404003777699</v>
+        <v>2356.412643684834</v>
       </c>
       <c r="C38" t="n">
-        <v>549.7404003777699</v>
+        <v>1918.270170868257</v>
       </c>
       <c r="D38" t="n">
-        <v>549.7404003777699</v>
+        <v>1482.360386042702</v>
       </c>
       <c r="E38" t="n">
-        <v>549.7404003777699</v>
+        <v>1048.585641200997</v>
       </c>
       <c r="F38" t="n">
-        <v>549.7404003777699</v>
+        <v>717.1618230460131</v>
       </c>
       <c r="G38" t="n">
         <v>317.6591317254903</v>
@@ -7174,25 +7174,25 @@
         <v>119.1375305205814</v>
       </c>
       <c r="J38" t="n">
-        <v>312.6047130658806</v>
+        <v>276.7843057640266</v>
       </c>
       <c r="K38" t="n">
-        <v>548.8763634451016</v>
+        <v>513.0559561432475</v>
       </c>
       <c r="L38" t="n">
-        <v>841.9922383090022</v>
+        <v>806.1718310071482</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.140126477789</v>
+        <v>1132.319719175935</v>
       </c>
       <c r="N38" t="n">
-        <v>1499.565428454267</v>
+        <v>1463.745021152413</v>
       </c>
       <c r="O38" t="n">
-        <v>1812.52094299556</v>
+        <v>1776.700535693706</v>
       </c>
       <c r="P38" t="n">
-        <v>2079.621234174829</v>
+        <v>2043.800826872975</v>
       </c>
       <c r="Q38" t="n">
         <v>2280.202429185896</v>
@@ -7204,22 +7204,22 @@
         <v>2356.412643684834</v>
       </c>
       <c r="T38" t="n">
-        <v>2144.641392153946</v>
+        <v>2356.412643684834</v>
       </c>
       <c r="U38" t="n">
-        <v>2144.641392153946</v>
+        <v>2356.412643684834</v>
       </c>
       <c r="V38" t="n">
-        <v>1782.024442087773</v>
+        <v>2356.412643684834</v>
       </c>
       <c r="W38" t="n">
-        <v>1377.168987498806</v>
+        <v>2356.412643684834</v>
       </c>
       <c r="X38" t="n">
-        <v>958.0265240781165</v>
+        <v>2356.412643684834</v>
       </c>
       <c r="Y38" t="n">
-        <v>549.7404003777699</v>
+        <v>2356.412643684834</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>543.3023337868368</v>
+        <v>543.3023337868367</v>
       </c>
       <c r="C39" t="n">
-        <v>436.8458726234791</v>
+        <v>436.845872623479</v>
       </c>
       <c r="D39" t="n">
-        <v>341.7555837700323</v>
+        <v>341.7555837700322</v>
       </c>
       <c r="E39" t="n">
-        <v>247.635169096986</v>
+        <v>247.6351690969859</v>
       </c>
       <c r="F39" t="n">
-        <v>164.2513307131476</v>
+        <v>164.2513307131475</v>
       </c>
       <c r="G39" t="n">
-        <v>79.88023030280448</v>
+        <v>79.88023030280449</v>
       </c>
       <c r="H39" t="n">
         <v>47.93758026940073</v>
       </c>
       <c r="I39" t="n">
-        <v>82.15431644087685</v>
+        <v>82.15431644087687</v>
       </c>
       <c r="J39" t="n">
-        <v>176.0476557873439</v>
+        <v>176.047655787344</v>
       </c>
       <c r="K39" t="n">
         <v>336.5263278415142</v>
@@ -7295,10 +7295,10 @@
         <v>945.9594498484992</v>
       </c>
       <c r="X39" t="n">
-        <v>791.0920140873792</v>
+        <v>791.0920140873791</v>
       </c>
       <c r="Y39" t="n">
-        <v>664.6062348665999</v>
+        <v>664.6062348665998</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>720.8764687213975</v>
+        <v>844.4518195264288</v>
       </c>
       <c r="C40" t="n">
-        <v>548.3147572046224</v>
+        <v>671.8901080096538</v>
       </c>
       <c r="D40" t="n">
-        <v>382.4367644061451</v>
+        <v>506.0121152111765</v>
       </c>
       <c r="E40" t="n">
-        <v>212.6787606568823</v>
+        <v>389.3858146951261</v>
       </c>
       <c r="F40" t="n">
         <v>212.6787606568823</v>
@@ -7335,16 +7335,16 @@
         <v>106.8432439715838</v>
       </c>
       <c r="K40" t="n">
-        <v>478.4017991102776</v>
+        <v>203.643344539142</v>
       </c>
       <c r="L40" t="n">
-        <v>602.2726007285755</v>
+        <v>512.59048833041</v>
       </c>
       <c r="M40" t="n">
-        <v>1192.360860248018</v>
+        <v>1102.678747849852</v>
       </c>
       <c r="N40" t="n">
-        <v>1762.118575209552</v>
+        <v>1672.436462811387</v>
       </c>
       <c r="O40" t="n">
         <v>2209.87159338493</v>
@@ -7362,22 +7362,22 @@
         <v>2396.879013470037</v>
       </c>
       <c r="T40" t="n">
-        <v>2222.875057287399</v>
+        <v>2154.631789373443</v>
       </c>
       <c r="U40" t="n">
-        <v>1944.488425336142</v>
+        <v>1876.245157422186</v>
       </c>
       <c r="V40" t="n">
-        <v>1657.532917206572</v>
+        <v>1589.289649292617</v>
       </c>
       <c r="W40" t="n">
-        <v>1385.506512792864</v>
+        <v>1317.263244878908</v>
       </c>
       <c r="X40" t="n">
-        <v>1140.114758126276</v>
+        <v>1071.871490212321</v>
       </c>
       <c r="Y40" t="n">
-        <v>912.6950874403847</v>
+        <v>844.4518195264288</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1514.88554354214</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C41" t="n">
-        <v>1076.743070725563</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D41" t="n">
-        <v>640.8332859000079</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E41" t="n">
-        <v>640.8332859000079</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F41" t="n">
-        <v>640.8332859000079</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>241.3305945794851</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7444,19 +7444,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2172.85192681318</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>2172.85192681318</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>2172.85192681318</v>
       </c>
       <c r="X41" t="n">
-        <v>1941.185114027048</v>
+        <v>1753.709463392491</v>
       </c>
       <c r="Y41" t="n">
-        <v>1941.185114027048</v>
+        <v>1345.423339692144</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>807.9003835041292</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>807.9003835041292</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
-        <v>642.0223907056519</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E43" t="n">
-        <v>520.9988465953642</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F43" t="n">
-        <v>344.2917925571204</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895474</v>
@@ -7569,13 +7569,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>358.0754347909403</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092383</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M43" t="n">
         <v>1066.127311827553</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>752.8378878305998</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C44" t="n">
-        <v>752.8378878305998</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D44" t="n">
-        <v>316.9281030050443</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>316.9281030050443</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
@@ -7678,22 +7678,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U44" t="n">
-        <v>1960.89687180237</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V44" t="n">
-        <v>1598.279921736197</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W44" t="n">
-        <v>1598.279921736197</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X44" t="n">
-        <v>1179.137458315508</v>
+        <v>2181.576892983283</v>
       </c>
       <c r="Y44" t="n">
-        <v>1179.137458315508</v>
+        <v>1773.290769282936</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>732.1113136517137</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C46" t="n">
-        <v>559.5496021349386</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G46" t="n">
         <v>47.20655154895474</v>
@@ -7809,22 +7809,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>320.0013704257355</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092381</v>
+        <v>862.0820538119945</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7839,19 +7839,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1728.303599580566</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1441.348091450997</v>
+        <v>1656.801888486126</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.321687037288</v>
+        <v>1384.775484072418</v>
       </c>
       <c r="X46" t="n">
-        <v>923.9299323707007</v>
+        <v>1139.38372940583</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.9299323707007</v>
+        <v>911.9640587199385</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
         <v>41.31500304752734</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8148,16 +8148,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="Q4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P4" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8233,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.64570999510199</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>39.64570999510199</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>41.31500304752733</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.64570999510199</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13.31876740878118</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -8616,10 +8616,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>39.64570999510199</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N10" t="n">
         <v>41.31500304752734</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>434.5380041676942</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>323.2928365343469</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,19 +9087,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>263.8716243249365</v>
       </c>
       <c r="M16" t="n">
-        <v>410.2461643801351</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>36.18222959783236</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>36.18222959783225</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>186.9458001747175</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>300.828541983373</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>36.18222959783236</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>36.18222959783228</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>186.9458001747175</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>300.828541983373</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="Q23" t="n">
-        <v>16.39178053361684</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>20.91758768940753</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9804,7 +9804,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>77.70122572350924</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>187.2544722033717</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.21795360309973</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>187.2544722033717</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>4.217953603099275</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>103.3550520324811</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>187.2544722033711</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>213.2711425132358</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>413.6345291375271</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>4.217953603098778</v>
+        <v>210.9971527464234</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>36.18222959783236</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>36.18222959783225</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10746,10 +10746,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>259.8370681095049</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>186.9458001747172</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10758,10 +10758,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>36.18222959783236</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>36.18222959783225</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>186.9458001747172</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -10995,7 +10995,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>333.3203402299152</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>69.27619576520644</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>118.2717723303429</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042869</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.5258532092329</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>90.87967246293528</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>73.9283347038905</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>13.8689699958797</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,19 +23497,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>90.87967246293485</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -23557,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>225.7456803124179</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>56.59250992092784</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>234.0436584781288</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>160.8759118364784</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23794,10 +23794,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>215.7289437083891</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>79.40705014907091</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>235.9676383464452</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>164.5528539785872</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>159.6422477105806</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>67.56083523481628</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>110.4721061544345</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24259,16 +24259,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>23.24897932622783</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>376.773384518336</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>22.15415131372652</v>
       </c>
       <c r="G26" t="n">
-        <v>209.1031047179661</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24499,10 +24499,10 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.6216266167392</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>72.33026864698039</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -24739,13 +24739,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>74.61109796863664</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>55.10829935906071</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>121.1734819429251</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>210.4297080726298</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25213,13 +25213,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,7 +25317,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>50.42778457138508</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>120.522143477322</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>95.47917532145061</v>
       </c>
       <c r="G38" t="n">
-        <v>165.7472084415608</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>52.60038620088025</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>67.56083523481634</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>74.84153334130364</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>70.87909043548973</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>48.24711504258526</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>81.67066052189065</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>70.69712499036689</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>237.9878611666729</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>32.70605250968038</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>246.0053115744586</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>557313.3825107518</v>
+        <v>557313.382510752</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>557313.3825107518</v>
+        <v>557313.382510752</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>339031.0882633534</v>
+        <v>339031.0882633535</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>420401.3633148756</v>
+        <v>420401.3633148755</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>420401.3633148756</v>
+        <v>420401.3633148755</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>339031.0882633536</v>
+        <v>339031.0882633535</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.806920546</v>
       </c>
       <c r="C2" t="n">
         <v>388706.8069205462</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
-        <v>228081.478386185</v>
+        <v>228081.4783861851</v>
       </c>
       <c r="F2" t="n">
         <v>228081.4783861851</v>
@@ -26340,7 +26340,7 @@
         <v>274231.3343724199</v>
       </c>
       <c r="K2" t="n">
-        <v>274231.3343724199</v>
+        <v>274231.3343724197</v>
       </c>
       <c r="L2" t="n">
         <v>274231.3343724199</v>
@@ -26352,10 +26352,10 @@
         <v>230745.0444707029</v>
       </c>
       <c r="O2" t="n">
+        <v>228081.4783861851</v>
+      </c>
+      <c r="P2" t="n">
         <v>228081.4783861852</v>
-      </c>
-      <c r="P2" t="n">
-        <v>228081.4783861851</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2504.550085543</v>
+        <v>2504.55008554303</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>39672.17110964687</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736729</v>
+        <v>10809.82265736726</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99576.70586096625</v>
+        <v>99576.70586096622</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>300452.3867499857</v>
       </c>
       <c r="E4" t="n">
+        <v>12054.8494407426</v>
+      </c>
+      <c r="F4" t="n">
         <v>12054.84944074259</v>
       </c>
-      <c r="F4" t="n">
-        <v>12054.8494407426</v>
-      </c>
       <c r="G4" t="n">
-        <v>13278.72782978111</v>
+        <v>13278.72782978112</v>
       </c>
       <c r="H4" t="n">
-        <v>13278.72782978111</v>
+        <v>13278.72782978112</v>
       </c>
       <c r="I4" t="n">
-        <v>33260.1845465983</v>
+        <v>33260.18454659831</v>
       </c>
       <c r="J4" t="n">
-        <v>33260.18454659833</v>
+        <v>33260.18454659831</v>
       </c>
       <c r="K4" t="n">
-        <v>33260.18454659833</v>
+        <v>33260.18454659831</v>
       </c>
       <c r="L4" t="n">
-        <v>33260.1845465983</v>
+        <v>33260.18454659831</v>
       </c>
       <c r="M4" t="n">
         <v>13278.72782978111</v>
@@ -26456,7 +26456,7 @@
         <v>13278.72782978111</v>
       </c>
       <c r="O4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="P4" t="n">
         <v>12054.8494407426</v>
@@ -26478,10 +26478,10 @@
         <v>36139.55218528966</v>
       </c>
       <c r="E5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="F5" t="n">
         <v>46051.08120963781</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
         <v>46606.66303717678</v>
@@ -26493,10 +26493,10 @@
         <v>55677.28176780177</v>
       </c>
       <c r="J5" t="n">
-        <v>55677.28176780178</v>
+        <v>55677.28176780177</v>
       </c>
       <c r="K5" t="n">
-        <v>55677.28176780178</v>
+        <v>55677.28176780177</v>
       </c>
       <c r="L5" t="n">
         <v>55677.28176780177</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38269.26021897428</v>
+        <v>38269.26021897416</v>
       </c>
       <c r="C6" t="n">
-        <v>52114.86798527087</v>
+        <v>52114.86798527076</v>
       </c>
       <c r="D6" t="n">
-        <v>52114.8679852707</v>
+        <v>52114.86798527076</v>
       </c>
       <c r="E6" t="n">
-        <v>-368823.9022749465</v>
+        <v>-369377.7827181683</v>
       </c>
       <c r="F6" t="n">
-        <v>169975.5477358047</v>
+        <v>169421.6672925828</v>
       </c>
       <c r="G6" t="n">
-        <v>168355.1035182021</v>
+        <v>167810.4077856163</v>
       </c>
       <c r="H6" t="n">
-        <v>170859.653603745</v>
+        <v>170314.9578711593</v>
       </c>
       <c r="I6" t="n">
-        <v>145621.696948373</v>
+        <v>145226.9539395863</v>
       </c>
       <c r="J6" t="n">
-        <v>174484.0454006525</v>
+        <v>174089.3023918659</v>
       </c>
       <c r="K6" t="n">
-        <v>185293.8680580198</v>
+        <v>184899.125049233</v>
       </c>
       <c r="L6" t="n">
-        <v>185293.8680580198</v>
+        <v>184899.1250492332</v>
       </c>
       <c r="M6" t="n">
-        <v>71282.94774277872</v>
+        <v>70738.25201019314</v>
       </c>
       <c r="N6" t="n">
-        <v>170859.653603745</v>
+        <v>170314.9578711594</v>
       </c>
       <c r="O6" t="n">
-        <v>169975.5477358048</v>
+        <v>169421.6672925827</v>
       </c>
       <c r="P6" t="n">
-        <v>169975.5477358047</v>
+        <v>169421.6672925828</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>41.31500304752735</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="F4" t="n">
         <v>590.0818943619341</v>
-      </c>
-      <c r="F4" t="n">
-        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
         <v>599.2197533675092</v>
@@ -26813,10 +26813,10 @@
         <v>748.4075614369992</v>
       </c>
       <c r="J4" t="n">
-        <v>748.4075614369993</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="K4" t="n">
-        <v>748.4075614369993</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="L4" t="n">
         <v>748.4075614369992</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.137859005574914</v>
+        <v>9.137859005575024</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>149.1878080694901</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752751</v>
+        <v>41.3150030475274</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.5790832449168</v>
+        <v>399.5790832449167</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.137859005574914</v>
+        <v>9.137859005575024</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27463,7 +27463,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>57.74913128065019</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
@@ -27472,10 +27472,10 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647795</v>
+        <v>48.14098415221586</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>87.56185418517705</v>
       </c>
       <c r="U3" t="n">
-        <v>133.258178482504</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
         <v>197.1263427586206</v>
@@ -27590,10 +27590,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>228.234040354749</v>
       </c>
       <c r="U4" t="n">
-        <v>260.4620591368455</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27605,7 +27605,7 @@
         <v>201.6228340723943</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27697,16 +27697,16 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517241</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
         <v>84.53123883647795</v>
@@ -27751,16 +27751,16 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
-        <v>138.1829268457693</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
         <v>125.2209214285714</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27782,7 +27782,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>131.6701690275081</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27791,10 +27791,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>116.333951967456</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -27836,13 +27836,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>254.1195287669911</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>52.82438291738494</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>56.78895584205376</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>46.15974531573791</v>
       </c>
       <c r="G9" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T9" t="n">
         <v>128.8768572327044</v>
@@ -28028,10 +28028,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I10" t="n">
-        <v>46.45834668554408</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>142.4623434124031</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>202.1056489098019</v>
@@ -28070,13 +28070,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>227.7512255173414</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -33277,7 +33277,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917233</v>
@@ -34777,10 +34777,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
         <v>41.31500304752734</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -34868,16 +34868,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="Q4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P4" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.64570999510199</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>39.64570999510199</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>41.31500304752733</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.64570999510199</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13.31876740878118</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -35336,10 +35336,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>39.64570999510199</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N10" t="n">
         <v>41.31500304752734</v>
@@ -35409,13 +35409,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816033</v>
@@ -35424,16 +35424,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>566.4616327924714</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>425.0797619663504</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,13 +35655,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35807,19 +35807,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>388.9936461616011</v>
       </c>
       <c r="M16" t="n">
-        <v>542.1697930049123</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35883,7 +35883,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>195.4213965104033</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -35892,7 +35892,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>154.0373652383782</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.5623597691677</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -35986,7 +35986,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>312.0678220113821</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>419.7839776881829</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>195.4213965104033</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36129,7 +36129,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>154.0373652383782</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.5623597691677</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36281,25 +36281,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>312.0678220113821</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>419.7839776881829</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36375,10 +36375,10 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>286.1900544520704</v>
       </c>
       <c r="Q23" t="n">
-        <v>218.999048221564</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
         <v>288.7178273103004</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,10 +36448,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>80.4182580956531</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36533,10 +36533,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>179.4881511555127</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36615,10 +36615,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>389.8617398913188</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36697,7 +36697,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,19 +36755,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>101.9958329642696</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893358</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>452.8039900485105</v>
@@ -36852,10 +36852,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>389.8617398913188</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916766</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36922,10 +36922,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>101.9958329642692</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>173.8270431745577</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,19 +37068,19 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>425.9127049096548</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>542.713453794839</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>748.4075614369992</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>101.9958329642687</v>
+        <v>308.7750321075933</v>
       </c>
       <c r="L34" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>575.5128433954892</v>
@@ -37247,7 +37247,7 @@
         <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>195.4213965104033</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,13 +37314,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>352.2989109526734</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184536</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>357.6149474706748</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>312.0678220113818</v>
       </c>
       <c r="M37" t="n">
         <v>596.0487469893359</v>
@@ -37478,10 +37478,10 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>195.4213965104033</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37551,7 +37551,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37563,7 +37563,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>238.7894972857794</v>
       </c>
       <c r="R38" t="n">
         <v>117.855135640546</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562329</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -37703,19 +37703,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>312.0678220113818</v>
       </c>
       <c r="M40" t="n">
-        <v>596.0487469893361</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>452.2757759347251</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>167.0540751263764</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M43" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
@@ -38025,10 +38025,10 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -38037,7 +38037,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38177,25 +38177,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>216.0496516915127</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409515</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
